--- a/Ecopulper/my_graphs/impact_1.xlsx
+++ b/Ecopulper/my_graphs/impact_1.xlsx
@@ -519,70 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>55.22501135058701</v>
+        <v>0.5575709063559771</v>
       </c>
       <c r="C2">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D2">
-        <v>148.8053193494416</v>
+        <v>1.503125093979179</v>
       </c>
       <c r="E2">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F2">
-        <v>0.02762718137455522</v>
+        <v>0.0002788719466479961</v>
       </c>
       <c r="G2">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H2">
-        <v>0.326601816584116</v>
+        <v>0.003297724667390867</v>
       </c>
       <c r="I2">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J2">
-        <v>6.228031211066991</v>
+        <v>0.06288608210161328</v>
       </c>
       <c r="K2">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L2">
-        <v>1.991256049368531</v>
+        <v>0.02010645903646946</v>
       </c>
       <c r="M2">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N2">
-        <v>5.784106488339603</v>
+        <v>0.05840281443670392</v>
       </c>
       <c r="O2">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P2">
-        <v>0.5764241663171057</v>
+        <v>0.576419982781167</v>
       </c>
       <c r="Q2">
-        <v>1.73483357991253</v>
+        <v>1.734846170972601</v>
       </c>
       <c r="R2">
-        <v>-1487.822737615279</v>
+        <v>-15.02892416025861</v>
       </c>
       <c r="S2">
-        <v>-0.06513197211097577</v>
+        <v>-0.0006569627730641514</v>
       </c>
       <c r="T2">
-        <v>-3.265096673989319</v>
+        <v>-0.03296794290417893</v>
       </c>
       <c r="U2">
-        <v>-27.95419938629493</v>
+        <v>-0.2822777731344104</v>
       </c>
       <c r="V2">
-        <v>-56.39409644715488</v>
+        <v>-0.5694311107508838</v>
       </c>
       <c r="W2">
-        <v>34.24999718274921</v>
+        <v>0.3457833842840046</v>
       </c>
     </row>
   </sheetData>
